--- a/data/trans_bre/P34_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-8,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,66%</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>-41,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>-8,02%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-25,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-55,18%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 11,78</t>
+          <t>-26,43; 7,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 22,59</t>
+          <t>-19,35; 14,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 26,92</t>
+          <t>-26,11; 11,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,69; 104,52</t>
+          <t>-28,66; 4,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 293,64</t>
+          <t>-86,84; 122,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 231,2</t>
+          <t>-80,73; 309,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-81,28; 129,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-92,92; 77,86</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,98</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-35,59%</t>
+          <t>-16,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,87%</t>
+          <t>-15,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-43,77%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 5,04</t>
+          <t>-21,25; 14,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 3,62</t>
+          <t>-20,15; 15,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 9,25</t>
+          <t>-17,9; 18,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,76; 32,99</t>
+          <t>-43,86; 10,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 19,69</t>
+          <t>-61,67; 127,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 49,46</t>
+          <t>-57,93; 130,11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-51,76; 177,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-80,9; 46,96</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>-23,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,85%</t>
+          <t>-29,96%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-36,33%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,1%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 10,66</t>
+          <t>-20,49; 7,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 5,39</t>
+          <t>-22,95; 5,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 5,4</t>
+          <t>-23,01; 5,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,71; 60,13</t>
+          <t>-13,64; 12,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 23,66</t>
+          <t>-53,73; 45,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,54; 26,93</t>
+          <t>-59,18; 37,72</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-66,36; 33,45</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-52,82; 131,12</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>9,47%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72,92%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 12,72</t>
+          <t>-9,4; 14,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 10,83</t>
+          <t>-10,59; 12,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 10,8</t>
+          <t>-13,28; 11,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 93,77</t>
+          <t>-2,49; 19,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 76,71</t>
+          <t>-35,12; 112,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 70,85</t>
+          <t>-42,35; 97,16</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-44,1; 75,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-16,34; 253,74</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-14,19%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>14,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33,68%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 8,47</t>
+          <t>-12,85; 18,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 7,31</t>
+          <t>-10,73; 17,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 5,4</t>
+          <t>-11,18; 16,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-46,28; 37,83</t>
+          <t>-7,73; 20,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 38,13</t>
+          <t>-44,13; 124,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-54,61; 29,61</t>
+          <t>-45,76; 143,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-51,06; 142,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-43,17; 235,6</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-39,31%</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-32,78%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>146,53%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>254,45%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-10,21%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 3,57</t>
+          <t>-8,53; 9,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 3,94</t>
+          <t>-3,69; 19,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 3,27</t>
+          <t>-0,42; 25,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,45; 265,73</t>
+          <t>-14,36; 12,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,09; 100,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,81; 70,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-52,46; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-91,7; 423,91</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,4%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-16,72%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,34</t>
+          <t>-8,15; 4,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 1,78</t>
+          <t>-7,12; 5,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 2,56</t>
+          <t>-7,74; 4,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 12,56</t>
+          <t>-11,48; 4,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 8,97</t>
+          <t>-34,18; 23,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 12,68</t>
+          <t>-31,1; 32,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-31,4; 31,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; 26,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P34_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,26</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,58</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,6</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-41,16%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-8,02%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-25,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-55,18%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.459287388779183</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.075041638032903</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.343316207030067</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-10.85129888695919</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.4291351489820782</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.0701407809272943</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3036788985162117</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5517582967379175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-26,43; 7,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,35; 14,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-26,11; 11,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-28,66; 4,2</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-86,84; 122,0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-80,73; 309,63</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-81,28; 129,21</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-92,92; 77,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-28.79184101905456</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-21.00340280737509</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-29.38175532141256</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-31.34188830178443</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.8760281633920921</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8100556728156909</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8270355760355012</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.9223103376461358</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.191830402917981</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.03070258702646</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.93633206322779</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.954700667975401</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.079255389018515</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.863660047464343</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.30332264829904</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8099418433762449</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-16,09</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-15,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-6,12%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-43,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-21,25; 14,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-20,15; 15,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,9; 18,26</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-43,86; 10,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-61,67; 127,64</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-57,93; 130,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-51,76; 177,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-80,9; 46,96</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.5304213070657</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.653155266130278</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.156411917117126</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-17.28735550787562</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1145812721651574</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1006491449807606</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.05005421921117831</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4564899520765284</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-23,87%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-29,96%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-36,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.07388546131421</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-22.36664461212234</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-18.96422633278999</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-45.60813249190374</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6280051816363765</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.598335569711879</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5403436915213635</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8089518520400291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,49; 7,87</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,95; 5,48</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,01; 5,03</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 12,76</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-53,73; 45,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-59,18; 37,72</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-66,36; 33,45</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-52,82; 131,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.58274504446571</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.89219170302846</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.85508011417471</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.136330199812633</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.24411332667828</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.07841138977301</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.555781548856263</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4038161289994184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,34</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>23,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,47%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>72,92%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.543151624577984</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.76265778323171</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-11.43892152344413</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.7692298035485962</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2436369287861811</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3625027658046818</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4167186100915466</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.04333115686513598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 14,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 12,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 11,74</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 19,94</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-35,12; 112,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-42,35; 97,16</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-44,1; 75,55</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-16,34; 253,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.58199440900422</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-26.05675465815516</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-27.54981122208647</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.68828949658677</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5552215338880065</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6377008581091032</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6977472569290577</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5469918735616652</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.611913361233223</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.095148365763731</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.231453718122019</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.90674007643308</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.4984294186015386</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.3143548258664334</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1390398033452058</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.268081298442559</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,15</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>14,15%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,88%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>33,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; 18,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,73; 17,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,18; 16,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; 20,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-44,13; 124,32</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-45,76; 143,34</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-51,06; 142,06</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-43,17; 235,6</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.0475294789989</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5790585593224401</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.7541630986310555</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.750261790057065</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1027638103263217</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.02827759957851114</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.03190671011312379</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7606075111517714</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,69</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>22,92%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>146,53%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>254,45%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-10,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.56093042984492</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.78153679998169</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-14.39737755073884</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.037367296149386</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4248154889694689</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4472235181060671</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4532666007087836</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1487544487943193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 9,7</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 19,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 25,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; 12,4</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-52,46; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-91,7; 423,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.49055454136716</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.65608421427157</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.6070202392323</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.43812675555533</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9975420385911684</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8454685628698465</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7683007916828978</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.552884231467202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,287 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-8,68%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,47%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-5,22%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-16,72%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.431935771221599</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.038356076017954</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.284744639881894</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>3.440178495851071</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.0623752368174361</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.05357787645042143</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.07153486788112486</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.225670132260476</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 4,13</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 5,23</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 4,99</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-11,48; 4,24</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-34,18; 23,85</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-31,1; 32,36</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-31,4; 31,57</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-44,07; 26,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.54179952115663</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.14835260871323</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.75730013682258</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-9.385833539510983</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.4786094146743579</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.5040831695621252</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.5572684245444581</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.4738907206497487</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>18.03075681191717</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.30252610838878</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>14.99682813500521</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>17.80238688771903</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.134953784822625</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1.314857903492505</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.332851931695224</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>2.065445776366686</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1.579440602876445</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>6.940160052173145</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>9.986436955354842</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.5491034152265803</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.3635794069249647</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.534167420806457</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>2.363538051729008</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.05442314927597849</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-7.596603804255802</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-3.45079826492638</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.6667308034866654</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-12.97271371482024</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="n">
+        <v>-0.6204798897344743</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.8977220642273812</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>10.0048183056993</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>19.74343868789706</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>25.19157573861655</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>18.26783606001407</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>6.434647515620041</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.301106687577661</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.915491973477532</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.359819786694556</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-3.546988303733334</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.112108064318537</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.09292909257681811</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.1106344632406068</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1765892681847551</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.571466637135945</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.547374361617356</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-9.405398135228332</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-11.79769647766933</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.3597181754531283</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3513371479315441</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3586559774394741</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.4524710611476513</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.401325480735826</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.208882938792116</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.022672101541691</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.797663503560579</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.193933862982451</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.2499089833901969</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.2436401209033902</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.2497665502562462</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1315,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
